--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 3. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 3. komite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E300"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>Tescilli Adresi</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Şirket Türü</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Numarası</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Adı</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +497,21 @@
           <t xml:space="preserve"> BALATÇIK MAH. 8900 SK. NO: 14A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -505,6 +535,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. HASAN ALİ YÜCEL BUL. NO: 35A İÇ KAPI NO: 102 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -528,6 +573,21 @@
           <t xml:space="preserve"> SİTELER MAH. MİTHATPAŞA CAD. NO: 220B GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -551,6 +611,21 @@
           <t xml:space="preserve"> ÇALIKUŞU MAH. 3208 SK. NO: 10 İÇ KAPI NO: 1 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -574,6 +649,21 @@
           <t xml:space="preserve"> 10020 SOKAK NO:36 İZMİR TEKELİ ORGANİZE SANAYİ BÖLGESİ MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -597,6 +687,21 @@
           <t xml:space="preserve"> KIZILÜZÜM MAH. KEMALPAŞA KIZILÜZÜM CAD.  NO: 14  İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -620,6 +725,21 @@
           <t>YILDIRIM BEYAZIT MAHALLESİ FATİH CADDESİ NO:1 KARAHAN İŞ HANI BLOK DAİRE:705 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -643,6 +763,21 @@
           <t xml:space="preserve"> ŞAİR EŞREF BULVARI NO:22  DAİRE:111 ÇANKAYA KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -666,6 +801,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2309 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -689,6 +839,21 @@
           <t>ÇINAR                     MAHALLESİ FATİH CADDESİ NO: 1/23  İÇ KAPI NO: 106 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -712,6 +877,21 @@
           <t>BAHÇELİEVLER              MAHALLESİ ANADOLU CADDESİ NO:321/C KALENDER BLOK  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -735,6 +915,21 @@
           <t xml:space="preserve"> MERSİN ALANI MAH. CUMHURİYET CAD. A BLOK  NO: 51-53B SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -758,6 +953,21 @@
           <t xml:space="preserve"> 628 SOK. NO:47/B  ÇİMENTEPE / İZMİR</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -781,6 +991,21 @@
           <t xml:space="preserve"> ÇANAKKALE CADDESİ N.66 PINARBAŞI BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -804,6 +1029,21 @@
           <t>GÜZELYALI                 MAHALLESİ 56 SOKAK NO:6/A BOZKURT BLOK KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -827,6 +1067,21 @@
           <t>GÜMÜŞPALA MAHALLESİ 7019  SOK. NO:1  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -850,6 +1105,21 @@
           <t xml:space="preserve"> 5698/2 SOKAK NO:4 B BLOK DAİRE:207 KARABAĞLAR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -873,6 +1143,21 @@
           <t xml:space="preserve"> SANAYİ CAD. NO:67 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -892,6 +1177,21 @@
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -915,6 +1215,21 @@
           <t xml:space="preserve"> 8229/2 SOKAK NO:10  BÜYÜK ÇİĞLİ / İZMİR</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -938,6 +1253,21 @@
           <t xml:space="preserve"> 1202/10 SK  YENİŞEHİR KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -961,6 +1291,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. KUYUCAK YOLU SK.  NO: 228 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -984,6 +1329,21 @@
           <t>İSMET KAPTAN MAHALLESİ HÜRRİYET BLV. KAVALA PLAZA BLOK  NO: 4/1  İÇ KAPI NO: 61 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1007,6 +1367,21 @@
           <t xml:space="preserve"> YENİ MAHALLE MAH. 8759 SK.  NO: 54A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1030,6 +1405,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CAD. NO:1448/A 1-105 AGORA ALIŞ VERİŞ MERKEZİ BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1049,6 +1439,21 @@
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1072,6 +1477,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. 1337 SK. KEMAL ÖZSOY İŞ MERKEZİ BLOK  NO: 1  İÇ KAPI NO: 71 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1095,6 +1515,21 @@
           <t>ATAŞEHİR MAHALLESİ 8285 SK. BALCILAR İŞ MERKEZI SİTESİ  NO: 21  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1118,6 +1553,21 @@
           <t xml:space="preserve"> ATATÜRK MAHALLESİ ZİYA GÖKALP CAD. MAHMUT BALABAN SİT.  NO: 191 A  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1137,6 +1587,21 @@
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1160,6 +1625,21 @@
           <t>MANAVKUYU MAHALLESİ 245  SOK. ÇAPA Apt.  NO: 5 B BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1183,6 +1663,21 @@
           <t>ADALET MAHALLESİ MANAS BULV. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO: 260 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1206,6 +1701,21 @@
           <t xml:space="preserve"> 1202/2 SOK. NO:4  GIDA ÇARŞISI KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1229,6 +1739,21 @@
           <t xml:space="preserve"> ESENLİK MAH. POLAT CAD.  NO: 19B  İÇ KAPI NO: B KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1252,6 +1777,21 @@
           <t xml:space="preserve"> 286/6 SOKAK NO:21/C  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1275,6 +1815,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS APT.  NO: 47 B/2601  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1298,6 +1853,21 @@
           <t>YEŞİLÇAM                  MAHALLESİ KEMALPAŞA CADDESI NO:352/4A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1321,6 +1891,21 @@
           <t>ÇINARLI                   MAHALLESİ 1587/1 SOKAK  YILDIZ İŞ MERKEZİ BLOK  NO: 4/3A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1344,6 +1929,21 @@
           <t xml:space="preserve"> 1202/11 SOK. NO:7  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1367,6 +1967,21 @@
           <t xml:space="preserve"> SÜTÇÜLER MAHALLESİ FABRİKALAR ( KÜME EVLER )  NO: 13  /3-/-  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1390,6 +2005,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/6 SK NO:50  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1409,6 +2039,21 @@
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1432,6 +2077,21 @@
           <t xml:space="preserve"> ATAKENT MAH. 2034 SK. BERGAMA EVLERI SİTESİ NO: 26D KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1455,6 +2115,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD.  NO: 3  İÇ KAPI NO: 1B116 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1478,6 +2153,21 @@
           <t xml:space="preserve"> AHMETBEYLİ MAH. 4025 SK. NO: 4B MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1501,6 +2191,21 @@
           <t>KÜÇÜK ÇİĞLİ               MAHALLESİ ANADOLU CAD. NO: 1185A ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1524,6 +2229,21 @@
           <t>KONAK MAHALLESİ 871 SK. NO:53  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1547,6 +2267,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1145/4 SOKAK NO: 15 A/A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1566,6 +2301,21 @@
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1589,6 +2339,21 @@
           <t>MERİÇ MAHALLESİ 5748 SK. NO: 53  İÇ KAPI NO: 1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1612,6 +2377,21 @@
           <t xml:space="preserve"> 1145/4 SOKAK NO:10  YENİŞEHİR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1635,6 +2415,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 286/1 SK. NO: 1 İÇ KAPI NO: 215 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1658,6 +2453,21 @@
           <t>MUSTAFA KEMAL ATATÜRK MAHALLESİ İZMİR CAD. NO:87  ULUCAK KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1681,6 +2491,21 @@
           <t xml:space="preserve"> EVKA 3 MAH. 119/10 SK. ADOSAN SİTESİ B BLOK  NO: 4  İÇ KAPI NO: 8 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1704,6 +2529,21 @@
           <t xml:space="preserve"> GÖKSU MAHALLESİ 688/3 SK. NO:7/B BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1727,6 +2567,21 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 39  İÇ KAPI NO: 3201 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1750,6 +2605,21 @@
           <t>ÇINARLI                   MAHALLESİ OZAN ABAY CADDESİ NO:10 EGE PERLA İŞ MERK. B KULE KAT:4 DAİRE:43 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1773,6 +2643,21 @@
           <t>AKDENİZ                   MAHALLESİ ŞEHİT FETHİBEY CADDESİ PAMUK İŞHANI Apt.  NO: 32/201 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1796,6 +2681,21 @@
           <t xml:space="preserve"> ÇALIKUŞU MAH. 3208 SK.  NO: 10  İÇ KAPI NO: 1 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1815,6 +2715,21 @@
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1838,6 +2753,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1861,6 +2791,21 @@
           <t xml:space="preserve"> NO:23 SÜTÇÜLER MAH. İZMİR-ANKARA CADİÇ KAPI NO: 2 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1884,6 +2829,21 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ ATATÜRK BULVARI FOÇALI BLOK  NO: 12A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1907,6 +2867,21 @@
           <t>MANSUROĞLU MAHALLESİ 283/12 SOK. NO:5/1  KAT:2 DAİRE:7 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1930,6 +2905,21 @@
           <t>İTOB OSB MAHALLESİ 10014 SOKAK NO:8  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1953,6 +2943,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6112 SK. TİCARET MERKEZİ BLOK  NO: 1  İÇ KAPI NO: 103 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1976,6 +2981,21 @@
           <t xml:space="preserve"> EGEMENLİK MAHALLESİ 6093 SK. S.KOCAMAN APT.  NO: 14  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1999,6 +3019,21 @@
           <t>BARBAROS                  MAHALLESİ 333 SOKAK NO: 11  İÇ KAPI NO: MÜSTAKİL  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2022,6 +3057,21 @@
           <t>ADALET MAHALLESİ MANAS NO: 47 B/3406  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2045,6 +3095,21 @@
           <t>ADALET MAHALLESİ MANAS FOLKART TOWERS BLOK NO: 47B  İÇ KAPI NO: 2601 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2068,6 +3133,21 @@
           <t xml:space="preserve"> 1643/9  SOK. NO:3  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2091,6 +3171,21 @@
           <t>YALI MAHALLESİ 6523 SOKAK NO:32/CB  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2110,6 +3205,21 @@
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2133,6 +3243,21 @@
           <t>KONAK                     MAHALLESİ 872 SK. NO:71  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2152,6 +3277,21 @@
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2175,6 +3315,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 364/1 SK. NO: 4K BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2198,6 +3353,21 @@
           <t>ARMUTLU 85.YIL CUMHURİYET MAHALLESİ SANAYİ CAD. NO: 124  İÇ KAPI NO: 1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2221,6 +3391,21 @@
           <t xml:space="preserve"> KONAK MAH. 856 SK. ASİLHAN BLOK  NO: 7  İÇ KAPI NO: 504 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2244,6 +3429,21 @@
           <t xml:space="preserve"> MEHMET AKİF ERSOY MAHALLESİ NO:66/1 2.ÖTEYAKA KÜMESİ A-B-C BLOKLAR KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2267,6 +3467,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ MANAS BLV.  NO: 47 B/3406  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2290,6 +3505,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2311 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2313,6 +3543,21 @@
           <t>YILDIRIM BEYAZIT MAHALLESİ 5106 SK. NO: 38F BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2336,6 +3581,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2359,6 +3619,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2309 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2382,6 +3657,21 @@
           <t xml:space="preserve">  DAİRE:6 AKALAN KÖYÜ KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2405,6 +3695,21 @@
           <t>EGEMENLİK MAHALLESİ 6106/18 SOKAK NO:6  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2428,6 +3733,21 @@
           <t>GÖRECE MAHALLESİ 5125 SOK. NO:29  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2451,6 +3771,21 @@
           <t xml:space="preserve"> MİTHATPAŞA MAHALLESİ 181 SK.  NO: 14 A/A  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2474,6 +3809,21 @@
           <t xml:space="preserve"> FATİH MAH. EGE CAD. NO: 42/3 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2497,6 +3847,21 @@
           <t>ADALET MAHALLESİ MANAS  BULVARI FOLKART TOWERS Apt.  NO: 39/3408 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2520,6 +3885,21 @@
           <t xml:space="preserve"> SASALI MERKEZ MAH. 67 SK.  NO: 11 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2543,6 +3923,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 367/8 SK. NO: 5J BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2566,6 +3961,21 @@
           <t>AKDENİZ MAHALLESİ GAZİ BULVARI NO: 5  İÇ KAPI NO: 15 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2589,6 +3999,21 @@
           <t xml:space="preserve"> GAZİ OSMAN PAŞA BULVARI NO:3/109  / İZMİR</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2612,6 +4037,21 @@
           <t xml:space="preserve"> KONAK MAH. 855 SK. NO: 8 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2635,6 +4075,21 @@
           <t>İSMET KAPTAN              MAHALLESİ ŞAİR EŞREF BULVARI ALTAY BLOK  NO: 18  İÇ KAPI NO: 38 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2658,6 +4113,21 @@
           <t xml:space="preserve"> GAZİ ALBAY İBRAHİM KARAOĞLANOĞLU   NO:62/B GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2681,6 +4151,21 @@
           <t>SOĞUKKUYU MAHALLESİ 1847/12  SOK. ÇINAR Apt.  NO: 3 A  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2704,6 +4189,21 @@
           <t xml:space="preserve"> KONAK MAH. 856 SK. ASİLHAN BLOK  NO: 7  İÇ KAPI NO: 803 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2727,6 +4227,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. 8047/1 SK.  NO: 4  İÇ KAPI NO: 1 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2750,6 +4265,21 @@
           <t>GÖKSU                     MAHALLESİ 690/17 SK. SEZER BLOK  NO: 1  İÇ KAPI NO: 1 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2773,6 +4303,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAH. 7405 SK. NO: 14 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2792,6 +4337,21 @@
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2815,6 +4375,21 @@
           <t xml:space="preserve"> 1718 SK. NO:9/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2838,6 +4413,21 @@
           <t xml:space="preserve"> YILDIRIM BEYAZIT MAH. 5106 SK. NO: 25A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2861,6 +4451,21 @@
           <t xml:space="preserve"> HALKAPINAR  1202  NO:NO:57/A KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2884,6 +4489,21 @@
           <t>YALI MAHALLESİ AHMET KEMAL BAYSAK BLV. İNŞAAT BLOK  NO: 42  İÇ KAPI NO: 8  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2907,6 +4527,21 @@
           <t xml:space="preserve"> GÖKDERE MAH. GÖKDERE CAD. NO: 85 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2930,6 +4565,21 @@
           <t xml:space="preserve"> SÜTÇÜLER MAH. FABRİKALAR KÜME EVLERİ   NO: 15  İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2953,6 +4603,21 @@
           <t>MERSİNLİ                  MAHALLESİ 1580/1 SOKAK NO:7/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2976,6 +4641,21 @@
           <t xml:space="preserve"> BİRLEŞMİŞ MİLLETLER CADDESİ NO:2/5 VARYANT / İZMİR</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2999,6 +4679,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 286/3 SK. NO: 14B BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3022,6 +4717,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 296 SK. NO: 8A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3045,6 +4755,21 @@
           <t xml:space="preserve"> 51 SOK. NO:1  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3068,6 +4793,21 @@
           <t xml:space="preserve"> AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CAD. LİMBOZ İŞHANI APT.  NO: 27/402  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3091,6 +4831,21 @@
           <t xml:space="preserve"> ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. İŞÇİMENLER İŞ MERKEZİ APT.  NO: 146/9  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3114,6 +4869,21 @@
           <t xml:space="preserve"> ZAFER SB MAHALLESİ YALÇIN YOLU CAD.  NO: 9/3  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3137,6 +4907,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 12/2 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3160,6 +4945,21 @@
           <t xml:space="preserve"> REİS MAH. ZAİMAĞA CAD. FİLİTLER PASAJI NO: 54L KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3183,6 +4983,21 @@
           <t>KEMALPAŞA                 MAHALLESİ 7080 SOKAK KAPI  NO:1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3206,6 +5021,21 @@
           <t>GAZİ                      MAHALLESİ 28/21 NO:2  DAİRE:20 GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3229,6 +5059,21 @@
           <t xml:space="preserve"> TEKELİ ATATÜRK MAH. KAZIM KARABEKİR CAD. C NO: 28CB MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3252,6 +5097,21 @@
           <t>KONAK                     MAHALLESİ 856 SOKAK NO:7/503 ASİLHAN Apt.  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3275,6 +5135,21 @@
           <t xml:space="preserve"> GÜNEY MAHALLESİ   1140  NO:57 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3298,6 +5173,21 @@
           <t>MANAVKUYU MAHALLESİ 250  SOK. 2 Apt.  NO: 8 /1A BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3321,6 +5211,21 @@
           <t xml:space="preserve"> ERZENE MAH. GENÇLİK CAD. NO: 11 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3344,6 +5249,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/11 SOKAK NO:11  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3367,6 +5287,21 @@
           <t xml:space="preserve"> MEHMET AKİF ERSOY MAHALLESİ 2. ÖTEYAKA ( KÜME EVLER )  NO: 40 /1/1  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3390,6 +5325,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAHALLESİ GAZİ BLV. HİSAR DÜNYA KAHVELERİ APT.  NO: 132/_  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3413,6 +5363,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAH. 6170 SK.  NO: 11/38 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3436,6 +5401,21 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ DR. ALİ KARAMAN CAD. NO:2/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3459,6 +5439,21 @@
           <t xml:space="preserve"> DUMLUPINAR CADDESİ NO:55/B  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3482,6 +5477,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2809 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3505,6 +5515,21 @@
           <t>BAHARİYE                  MAHALLESİ 1837 SK. SAYB BLOK  NO: 14  İÇ KAPI NO: 5 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3528,6 +5553,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. GAZİ OSMAN PAŞA BUL. NO: 9 İÇ KAPI NO: 12 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3551,6 +5591,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. 1466 SK. NO: 12A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3574,6 +5629,21 @@
           <t xml:space="preserve"> 8285 SK. NO:16 BALCILAR SİTESİ ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3597,6 +5667,21 @@
           <t>SEKİZ EYLÜL MAHALLESİ 102 SK. NO:72  DAİRE:1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3620,6 +5705,21 @@
           <t xml:space="preserve"> GÜRPINAR MAH. 7232/7 SK. AY-KOOP SİTESİ NO: 37A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3643,6 +5743,21 @@
           <t xml:space="preserve"> OSMANGAZİ  MAHALLESİ 562 SK. ÖZKANLAR 107 APT.  NO: 5  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3666,6 +5781,21 @@
           <t>MANSUROĞLU MAHALLESİ SAKARYA CAD. NO:73  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3689,6 +5819,21 @@
           <t xml:space="preserve"> YILDIRIM BEYAZIT MAHALLESİ FATİH CAD.  NO: 1/706  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3712,6 +5857,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. ANKARA ASFALTI CAD.  NO: 15  İÇ KAPI NO: 391 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3731,6 +5891,21 @@
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3754,6 +5929,21 @@
           <t>ÇINARLI                   MAHALLESİ ANKARA ASFALTI CADDESİ NO: 15  İÇ KAPI NO: 222 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3777,6 +5967,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. ŞEHİT FETHİBEY CAD. HERİS TOWER NO: 55 İÇ KAPI NO: 091 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3800,6 +6005,21 @@
           <t>EGEMENLİK MAHALLESİ 6106/16 SOKAK BUCA TAR.KAL.KOOP. Sit. E5 Apt.  NO: 12 A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3823,6 +6043,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1587 SK.  NO: 2-6  İÇ KAPI NO: 2201 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3846,6 +6081,21 @@
           <t>BOSTANLI MAHALLESİ AHMET PENDİKLİ SK. NO: 3A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3869,6 +6119,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 1593/1 SK. NO: 26D BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3892,6 +6157,21 @@
           <t xml:space="preserve"> 903 SK NO:2 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3915,6 +6195,21 @@
           <t xml:space="preserve"> YAYLACIK MAH. GAZİ OSMAN PAŞA CAD. GÜNGÖR NO: 122B İÇ KAPI NO: B BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3938,6 +6233,21 @@
           <t>UMURBEY                   MAHALLESİ 1501 SOKAK NO:2/C  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3957,6 +6267,21 @@
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3980,6 +6305,21 @@
           <t>BASIN SİTESİ MAHALLESİ İNÖNÜ CAD.  FAİK BEY BLOK  NO: 479A  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4003,6 +6343,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 257 SK. NO: 9B BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4026,6 +6381,21 @@
           <t xml:space="preserve"> HÜRRİYET MAH. CELAL BAYAR BUL. KERESTECILER ÇARŞISI SİTESİ NO: 31 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4049,6 +6419,21 @@
           <t>ESTİM SANAYİ SİTESİ MAHALLESİ 2. CADDE NO:5-7 KISIKKÖY / İZMİR</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4072,6 +6457,21 @@
           <t>UĞUR MUMCU                MAHALLESİ 8980/5 SK. NO:14/A  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4095,6 +6495,21 @@
           <t xml:space="preserve"> PAYAMLI MAH. KUŞADASI SEFERİHİSAR YOLU CAD. NO: 124A SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4118,6 +6533,21 @@
           <t>İNCİRALTI                 MAHALLESİ İNCİRALTI CAD. NO:42  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4141,6 +6571,21 @@
           <t xml:space="preserve"> ANAFARTALAR CADDESİ NO:77 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4164,6 +6609,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAHALLESİ 1593/1 SK. A BLOK APT.  NO: 2/108  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4187,6 +6647,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAHALLESİ SEZER DOĞAN SK. DİNMEZ İŞHANI APT.  NO: 10/54  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4210,6 +6685,21 @@
           <t xml:space="preserve"> 1717 SOK. NO:36 KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4233,6 +6723,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. SANAYİ CAD.  NO: 10 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4256,6 +6761,21 @@
           <t xml:space="preserve"> KEMALPAŞA YOLU 1. KM. NO:78/2  KIROVASI MEVKİİ  / </t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4279,6 +6799,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ SANAYİ CAD NO:10  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4302,6 +6837,21 @@
           <t>MALTEPE MAHALLESİ YAREN DEDE SK NO:31  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4325,6 +6875,21 @@
           <t>ATATÜRK MAHALLESİ SANAYİ CD. NO:10/1  ULUCAK KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4348,6 +6913,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 288/6 SK. NO: 14B BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4371,6 +6951,21 @@
           <t>YENİŞEHİR MAHALLESİ 1202 SOK. NO: 82A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4394,6 +6989,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAH. 1248 SK.  NO: 4A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4417,6 +7027,21 @@
           <t xml:space="preserve"> 1202/8 SK. NO:1 GIDA ÇARŞISI YENİŞEHİR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4440,6 +7065,21 @@
           <t>KAZIMDİRİK MAHALLESİ 229/2 SOKAK NO:21/A MEŞE Apt.   BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4463,6 +7103,21 @@
           <t xml:space="preserve"> 66 SK. SANAYİ BÖLGESİ ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4486,6 +7141,21 @@
           <t xml:space="preserve"> BAHRİYE ÜÇOK MAH. LATİFE HANIM SK. NO: 93B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4505,6 +7175,21 @@
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4528,6 +7213,21 @@
           <t>AKDENİZ                   MAHALLESİ 1337 SOKAK  NO: 1  İÇ KAPI NO: 24  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4551,6 +7251,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAH. 6 SK. NO: 18-22A MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4574,6 +7289,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. ŞAİR EŞREF BUL. KARA AHMETOGLU BLOK  NO: 22  İÇ KAPI NO: 205 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4597,6 +7327,21 @@
           <t>YALI MAHALLESİ AHMET KEMAL BAYSAK BLV.  İNŞAAT BLOK  NO: 42  İÇ KAPI NO: 8 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4620,6 +7365,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. 8282 SK. BALCILAR İŞ MERKEZI SİTESİ  NO: 14 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4643,6 +7403,21 @@
           <t xml:space="preserve"> SANAYİ BÖLGESİ 66 SOKAK NO:13  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4666,6 +7441,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. GAZİ OSMAN PAŞA BUL. YENI ASIR IŞ HANI NO: 3 İÇ KAPI NO: 510 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4689,6 +7479,21 @@
           <t>ATATÜRK                   MAHALLESİ 947 SOKAK NO: 6A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4712,6 +7517,21 @@
           <t>KAZIMDİRİK MAHALLESİ 364/1 SOKAK NO:3/A ÖZEL ATAHAN KIZ OGRENCI YURDU SİTESİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4735,6 +7555,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/2 SOK. NO: 6M  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4758,6 +7593,21 @@
           <t>KAZIMDİRİK MAHALLESİ ÜNİVERSİTE CAD. NO: 72  İÇ KAPI NO: 105  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4781,6 +7631,21 @@
           <t xml:space="preserve"> NERGİZ MAH. 6003 SK. AHMET BEY NO: 47A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4804,6 +7669,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAH. 6170 SK.  NO: 11/12 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4827,6 +7707,21 @@
           <t xml:space="preserve"> FATİH MAH. 1191 SK. NO: 3 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4850,6 +7745,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. KUYUCAK YOLU SK.  NO: 228 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4873,6 +7783,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAHALLESİ PAKİSTAN BLV.  NO: 5 F/-  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4892,6 +7817,21 @@
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4915,6 +7855,21 @@
           <t xml:space="preserve"> KORUTÜRK MAH. SERVET SK.  NO: 20  İÇ KAPI NO: 1 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4938,6 +7893,21 @@
           <t>HÜRRİYET MAHALLESİ CELAL BAYAR BULV. NO:31  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4961,6 +7931,21 @@
           <t xml:space="preserve"> EGEMENLİK MAHALLESİ 6106/21 SK.  NO: 10  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -4984,6 +7969,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3  İÇ KAPI NO: 104  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5007,6 +8007,21 @@
           <t>ÇINARLI                   MAHALLESİ ANKARA ASFALTI CADDESİ NO:15/421  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5030,6 +8045,21 @@
           <t>KAZIM DİRİK MAHALLESİ ANKARA CAD. YILMAZ BLOK  NO: 209A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5053,6 +8083,21 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ 1762 SK.   NO: 9  İÇ KAPI NO: 1 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5076,6 +8121,21 @@
           <t xml:space="preserve"> ADALET MAH. 1586/3 SK.  NO: 40  İÇ KAPI NO: 4 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5099,6 +8159,21 @@
           <t>KEMALPAŞA                 MAHALLESİ ÇANAKKALE CADDESI NO: 41 H  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5122,6 +8197,21 @@
           <t xml:space="preserve"> DEMİRKÖPRÜ MAH. 6187 SK.  NO: 18C KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5145,6 +8235,21 @@
           <t xml:space="preserve"> CUMHURİYET MAHALLESİ SANAYİ CD. NO:96  ARMUTLU KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5168,6 +8273,21 @@
           <t xml:space="preserve"> KIZILÜZÜM MAH. KEMALPAŞA KIZILÜZÜM CAD. NO: 14 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5191,6 +8311,21 @@
           <t xml:space="preserve"> ÇINARKÖY MAH. KEMALPAŞA ÇINARKÖY CAD. NO: 34/4 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5214,6 +8349,21 @@
           <t xml:space="preserve"> 854 SOKAK NO:23  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5237,6 +8387,21 @@
           <t xml:space="preserve"> ÇİLE MAH. 7455 SK. NO: 3 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5260,6 +8425,21 @@
           <t xml:space="preserve"> İNÖNÜ MAH. BARBAROS CAD. NO: 376A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5283,6 +8463,21 @@
           <t>9 EYLÜL MAHALLESİ 342 SK. NO:6/1  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5306,6 +8501,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ SANAYİ CAD NO:8  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5329,6 +8539,21 @@
           <t>YILDIRIMBEYAZIT           MAHALLESİ 5142 SOKAK NO: 11  İÇ KAPI NO: 2 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5352,6 +8577,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. ŞEHİT FETHİBEY CAD. HERİS TOWER BLOK  NO: 55  İÇ KAPI NO: 091 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5375,6 +8615,21 @@
           <t xml:space="preserve"> ŞEHİT FETHİBEY CADDESİ NO:49  KAT:3 DAİRE:303 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5398,6 +8653,21 @@
           <t xml:space="preserve"> YALI MAH. CAHER DUDAYEV BUL. NO: 107A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5421,6 +8691,21 @@
           <t>AOSB MAHALLESİ 10044 SK. NO:15 SEÇSAN LTD ŞTİ SİT. A.O.S.B. ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5444,6 +8729,21 @@
           <t xml:space="preserve"> İSTİKLAL MAHALLESİ NO:110 AKALAN KÖYÜ UZUNKUYU MEVKİİ YOL KENARI SANAYİ KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5467,6 +8767,21 @@
           <t>KEMALPAŞA                 MAHALLESİ PINAR CADDESI NO:94  PINARBAŞI BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5490,6 +8805,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 263 SK. NO: 45 İÇ KAPI NO: 12 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5513,6 +8843,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1145/4 SOKAK NO:11/F  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5536,6 +8881,21 @@
           <t xml:space="preserve"> PINAR CAD. NO:89  PINARBAŞI BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5559,6 +8919,21 @@
           <t>MUAMMER AKAR MAHALLESİ 47 SK. NO: 32A  İÇ KAPI NO: A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5582,6 +8957,21 @@
           <t xml:space="preserve"> 85.YIL CUMHURİYET MAHALLESİ HAYVANKIRAN ( KÜME EVLER ) A APT.  NO: 92 /2/1  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5605,6 +8995,21 @@
           <t xml:space="preserve"> 10003 SOKAK NO:7  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5628,6 +9033,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2804 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5651,6 +9071,21 @@
           <t>MERSİNLİ                  MAHALLESİ 1580/1 SOKAK NO:5/1  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5674,6 +9109,21 @@
           <t>FATİH MAHALLESİ 1203 SK. NO:15/2A  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5697,6 +9147,21 @@
           <t>BOSTANLI                  MAHALLESİ 1821/1 SK. NO:12/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5720,6 +9185,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAH. 1249 SK. NO: 9A İÇ KAPI NO: A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5743,6 +9223,21 @@
           <t xml:space="preserve"> ZAFER SB MAH.  AYFER SK.  NO:20 GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5766,6 +9261,21 @@
           <t xml:space="preserve"> ZAFER SB MAHALLESİ ÇINAR SK.  NO: 18  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5789,6 +9299,21 @@
           <t xml:space="preserve"> GAZİ OSMAN PAŞA BULVARI YENİASIR İŞHANI  NO:3/510-511 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5812,6 +9337,21 @@
           <t>ONUR                      MAHALLESİ KIZILCIK SK. ERTUNÇ BLOK  NO: 8B  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5835,6 +9375,21 @@
           <t xml:space="preserve"> KIZILÜZÜM MAH. KEMALPAŞA KIZILÜZÜM CAD. NO: 14/3 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5854,6 +9409,21 @@
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5877,6 +9447,21 @@
           <t>İTOB OSB MAHALLESİ 10020 SOK. NO:18  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5900,6 +9485,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 296/2 SK. NO: 2N BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5923,6 +9523,21 @@
           <t xml:space="preserve"> MERSİN ALANI MAH. ÜRKMEZ CAD. NO: 129B SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5946,6 +9561,21 @@
           <t>MERSİNLİ                  MAHALLESİ 2817 SOKAK NO:65/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -5969,6 +9599,21 @@
           <t xml:space="preserve"> KÜLTÜR MAHALLESİ ŞEHİT NEVRES BLV. SEDİR APT.  NO: 5/5  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -5992,6 +9637,21 @@
           <t xml:space="preserve"> BOZYER KÜME EVLERİ TURGUT MAH. NO:41/1 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6015,6 +9675,21 @@
           <t xml:space="preserve"> 892 SOK. NO:44  HİSARÖNÜ / İZMİR</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6038,6 +9713,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. NEBİL SUSUP SK.  NO: 162A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6061,6 +9751,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. 1787/1 SK. BAŞAK BLOK  NO: 41A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6084,6 +9789,21 @@
           <t xml:space="preserve"> MİTHATPAŞA MAH. 181 SK.  NO: 30A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6107,6 +9827,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAHALLESİ 1145/1 SK.  NO: 55 I  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6130,6 +9865,21 @@
           <t>YAKA MAHALLESİ 465 SK. NO: 84 /1/0   GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6153,6 +9903,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. GAZİ OSMAN PAŞA BUL. YENI ASIR IŞ HANI NO: 3 İÇ KAPI NO: 510 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6176,6 +9941,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6199,6 +9979,21 @@
           <t xml:space="preserve"> OKUL SOKAK NO:21/C  DOĞANLAR BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6222,6 +10017,21 @@
           <t>ÇANKAYA                   MAHALLESİ MİTHATPAŞA CADDESİ KARDEŞLER BLOK  NO: 822C KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6245,6 +10055,21 @@
           <t xml:space="preserve"> BAHRİYE ÜÇOK MAH. 1762 SK. NO: 9  İÇ KAPI NO: 1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6268,6 +10093,21 @@
           <t xml:space="preserve"> DEVELİ MAH. 9130 SK. NO: 1/2 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6291,6 +10131,21 @@
           <t>DÜZCE MAHALLESİ NO:61 TORLAK ( KÜME EVLER ) SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6314,6 +10169,21 @@
           <t xml:space="preserve"> ZAFER SB MAH. KÜRŞAD SK.  NO: 15 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6337,6 +10207,21 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO:39 FOLKART TOWERS B KULE KAT:31 DAİRE:3107 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -6360,6 +10245,21 @@
           <t xml:space="preserve"> 859 SOKAK NO:6 VATAN İŞH.K:1/101-102 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -6383,6 +10283,21 @@
           <t xml:space="preserve"> 93 SK. NO:18  PINARBAŞI BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -6406,6 +10321,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. HASAN ALİ YÜCEL BUL.  NO: 35A  İÇ KAPI NO: 102 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6429,6 +10359,21 @@
           <t xml:space="preserve"> 1145/5 SOKAK NO:3  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6452,6 +10397,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1202/4 SK.  NO: 41 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6475,6 +10435,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1202/2 SK. NO: 6I KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6498,6 +10473,21 @@
           <t>İSMET KAPTAN MAHALLESİ SEZER DOĞAN SK. NO:10 DİNMEZ İŞHANI DAİRE:54 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6521,6 +10511,21 @@
           <t>ADALET MAHALLESİ MANAS  BULVARI NO:47/B FOLKART TOWERS BLOK  İÇ KAPI NO: 3509  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6544,6 +10549,21 @@
           <t xml:space="preserve"> 859 SOKAK NO:4/103 SÖĞÜTLÜ İŞ HANI KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6567,6 +10587,21 @@
           <t>ERZENE MAHALLESİ ANKARA CAD. EGE TEKNO PARK BLOK  NO: 172/67 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6590,6 +10625,21 @@
           <t>ATATÜRK                   MAHALLESİ HÜRRİYET CAD. NO: 203A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6613,6 +10663,21 @@
           <t>ADALET MAHALLESİ MANAS BULV.  NO: 39  İÇ KAPI NO: 3201  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6636,6 +10701,21 @@
           <t xml:space="preserve"> CAMİKEBİR MAHALLESİ NECAT HEPKON CAD.  NO: 29/1  SEFERİHİSAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6659,6 +10739,21 @@
           <t xml:space="preserve"> TEPECİK MAHALLESİ AKÇAKAYA KÜMEEVLER NO:1 SEFERİHİSAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6682,6 +10777,21 @@
           <t xml:space="preserve"> TEPECİK MAH. AKÇAKAYA KÜME EVLERİ  E  BLOK  NO: 2 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -6705,6 +10815,21 @@
           <t>SÜTÇÜLER MAHALLESİ İZMİR-ANKARA CD. NO:23/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -6728,6 +10853,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAHALLESİ  7416/3 SOKAK  NO:NO:9 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6751,6 +10891,21 @@
           <t>KEMALPAŞA OSB. MAHALLESİ 31 SK. NO:6/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6774,6 +10929,21 @@
           <t>KÜLTÜR                    MAHALLESİ İZMİR CUMHURİYET MEYDANI CUMHURİYET BLOK  NO: 12  İÇ KAPI NO: 61 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6797,6 +10967,21 @@
           <t>KONAK                     MAHALLESİ ANAFARTALAR CADDESİ SALEPÇİOĞLU VAKIF ÇARŞI İŞHANI Apt. NO:96/111 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6820,6 +11005,21 @@
           <t xml:space="preserve"> İNÖNÜ MAHALLESİ 672/17 SK.  NO: 2 A  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6843,6 +11043,21 @@
           <t>85. YIL CUMHURİYET MAHALLESİ HAYVANKIRAN (KÜMEEVLER) NO:92/2/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6866,6 +11081,21 @@
           <t xml:space="preserve"> AKDENİZ MAHALLESİ 1347 SK.  NO: 8/110  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6889,6 +11119,21 @@
           <t xml:space="preserve"> ADATEPE MAH. 3/18 SK. S.S.EGETEKS.KOOP SİTESİ  NO: 1D BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6912,6 +11157,21 @@
           <t xml:space="preserve"> ŞEHİT NEVRES BULVARI NO:1/1  DAİRE:3 ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6935,6 +11195,21 @@
           <t>AKDENİZ                   MAHALLESİ ŞEHİT FETHİBEY CADDESİ NO:32  DAİRE:201 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6958,6 +11233,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. HÜRRİYET BUL. KAVALA PLAZA BLOK  NO: 4/1  İÇ KAPI NO: 61 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -6981,6 +11271,21 @@
           <t>KONAK                     MAHALLESİ 846 SK. NO: 28  İÇ KAPI NO: 21 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7004,6 +11309,21 @@
           <t>AOSB MAHALLESİ 10002 SK. NO:28  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7027,6 +11347,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. DR. MUSTAFA ENVER BEY CAD. ONUR NO: 5B İÇ KAPI NO: 5B KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7050,6 +11385,21 @@
           <t xml:space="preserve"> MUSALLA MAH. 1016 SK. NO: 2/17B ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7073,6 +11423,21 @@
           <t xml:space="preserve"> KILIÇ REİS MAH. İNÖNÜ CAD.  NO: 210D KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -7096,6 +11461,21 @@
           <t xml:space="preserve"> 1145/4 SOKAK NO:11/K  YENİŞEHİR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7119,6 +11499,21 @@
           <t>HALKAPINAR MAHALLESİ 1203/9 SOKAK NO:2  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7142,6 +11537,21 @@
           <t>AKIN SİMAV                MAHALLESİ MİTHATPAŞA CADDESİ NO:331/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -7165,6 +11575,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAH. 1145/6 SK. NO: 14K KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7188,6 +11613,21 @@
           <t xml:space="preserve"> 538 SOK. NO:39  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7211,6 +11651,21 @@
           <t xml:space="preserve"> GÜRPINAR MAH. 7232/7 SK. AY-KOOP SİTESİ NO: 35A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7230,6 +11685,21 @@
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -7253,6 +11723,21 @@
           <t>KAZIMDİRİK MAHALLESİ 364/10 SK. NO: 2E BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -7274,6 +11759,21 @@
       <c r="E300" t="inlineStr">
         <is>
           <t xml:space="preserve"> YENİMAHALE KAKLIÇ KÖYÜ ÇİĞLİ/İZMİR  / </t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
         </is>
       </c>
     </row>

--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 3. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 3. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J240"/>
+  <dimension ref="A1:I240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="28" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="64" customWidth="1" min="7" max="7"/>
     <col width="117" customWidth="1" min="8" max="8"/>
     <col width="99" customWidth="1" min="9" max="9"/>
-    <col width="69" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>BALATÇIK MAH. 8900 SK. NO: 14A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>BOSTANLI MAH. HASAN ALİ YÜCEL BUL. NO: 35A İÇ KAPI NO: 102 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>SİTELER MAH. MİTHATPAŞA CAD. NO: 220B GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>ÇALIKUŞU MAH. 3208 SK. NO: 10 İÇ KAPI NO: 1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>KIZILÜZÜM MAH. KEMALPAŞA KIZILÜZÜM CAD. NO: 14 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>YILDIRIM BEYAZIT MAHALLESİ FATİH CADDESİ NO:1 KARAHAN İŞ HANI BLOK DAİRE:705 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2309 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>ÇINAR MAHALLESİ FATİH CADDESİ NO: 1/23 İÇ KAPI NO: 106 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>BAHÇELİEVLER MAHALLESİ ANADOLU CADDESİ NO:321/C KALENDER BLOK KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>MERSİN ALANI MAH. CUMHURİYET CAD. A BLOK NO: 51-53B SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>GÜZELYALI MAHALLESİ 56 SOKAK NO:6/A BOZKURT BLOK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>GÜMÜŞPALA MAHALLESİ 7019 SOK. NO:1 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>KEMALPAŞA OSB MAH. KUYUCAK YOLU SK. NO: 228 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>İSMET KAPTAN MAHALLESİ HÜRRİYET BLV. KAVALA PLAZA BLOK NO: 4/1 İÇ KAPI NO: 61 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>YENİ MAHALLE MAH. 8759 SK. NO: 54A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>AKDENİZ MAH. 1337 SK. KEMAL ÖZSOY İŞ MERKEZİ BLOK NO: 1 İÇ KAPI NO: 71 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>ATAŞEHİR MAHALLESİ 8285 SK. BALCILAR İŞ MERKEZI SİTESİ NO: 21 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>ATATÜRK MAHALLESİ ZİYA GÖKALP CAD. MAHMUT BALABAN SİT. NO: 191 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>MANAVKUYU MAHALLESİ 245 SOK. ÇAPA Apt. NO: 5 B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 260 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>ESENLİK MAH. POLAT CAD. NO: 19B İÇ KAPI NO: B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS APT. NO: 47 B/2601 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>YEŞİLÇAM MAHALLESİ KEMALPAŞA CADDESI NO:352/4A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>ÇINARLI MAHALLESİ 1587/1 SOKAK YILDIZ İŞ MERKEZİ BLOK NO: 4/3A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>SÜTÇÜLER MAHALLESİ FABRİKALAR ( KÜME EVLER ) NO: 13 /3-/- KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/6 SK NO:50 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>ATAKENT MAH. 2034 SK. BERGAMA EVLERI SİTESİ NO: 26D KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B116 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>AHMETBEYLİ MAH. 4025 SK. NO: 4B MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>KÜÇÜK ÇİĞLİ MAHALLESİ ANADOLU CAD. NO: 1185A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>KONAK MAHALLESİ 871 SK. NO:53 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145/4 SOKAK NO: 15 A/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>MERİÇ MAHALLESİ 5748 SK. NO: 53 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>MANSUROĞLU MAH. 286/1 SK. NO: 1 İÇ KAPI NO: 215 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>MUSTAFA KEMAL ATATÜRK MAHALLESİ İZMİR CAD. NO:87 ULUCAK KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>EVKA 3 MAH. 119/10 SK. ADOSAN SİTESİ B BLOK NO: 4 İÇ KAPI NO: 8 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>GÖKSU MAHALLESİ 688/3 SK. NO:7/B BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 39 İÇ KAPI NO: 3201 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>ÇINARLI MAHALLESİ OZAN ABAY CADDESİ NO:10 EGE PERLA İŞ MERK. B KULE KAT:4 DAİRE:43 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CADDESİ PAMUK İŞHANI Apt. NO: 32/201 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>ÇALIKUŞU MAH. 3208 SK. NO: 10 İÇ KAPI NO: 1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>NO:23 SÜTÇÜLER MAH. İZMİR-ANKARA CADİÇ KAPI NO: 2 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ ATATÜRK BULVARI FOÇALI BLOK NO: 12A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>MANSUROĞLU MAHALLESİ 283/12 SOK. NO:5/1 KAT:2 DAİRE:7 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>İTOB OSB MAHALLESİ 10014 SOKAK NO:8 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>EGEMENLİK MAH. 6112 SK. TİCARET MERKEZİ BLOK NO: 1 İÇ KAPI NO: 103 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>EGEMENLİK MAHALLESİ 6093 SK. S.KOCAMAN APT. NO: 14 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>BARBAROS MAHALLESİ 333 SOKAK NO: 11 İÇ KAPI NO: MÜSTAKİL KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>ADALET MAHALLESİ MANAS NO: 47 B/3406 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>ADALET MAHALLESİ MANAS FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>YALI MAHALLESİ 6523 SOKAK NO:32/CB KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>KONAK MAHALLESİ 872 SK. NO:71 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>KAZIMDİRİK MAH. 364/1 SK. NO: 4K BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>ARMUTLU 85.YIL CUMHURİYET MAHALLESİ SANAYİ CAD. NO: 124 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>KONAK MAH. 856 SK. ASİLHAN BLOK NO: 7 İÇ KAPI NO: 504 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ NO:66/1 2.ÖTEYAKA KÜMESİ A-B-C BLOKLAR KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 47 B/3406 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2311 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>YILDIRIM BEYAZIT MAHALLESİ 5106 SK. NO: 38F BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2309 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/18 SOKAK NO:6 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>GÖRECE MAHALLESİ 5125 SOK. NO:29 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>MİTHATPAŞA MAHALLESİ 181 SK. NO: 14 A/A KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>FATİH MAH. EGE CAD. NO: 42/3 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>ADALET MAHALLESİ MANAS BULVARI FOLKART TOWERS Apt. NO: 39/3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>SASALI MERKEZ MAH. 67 SK. NO: 11 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>KAZIMDİRİK MAH. 367/8 SK. NO: 5J BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>AKDENİZ MAHALLESİ GAZİ BULVARI NO: 5 İÇ KAPI NO: 15 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>KONAK MAH. 855 SK. NO: 8 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>İSMET KAPTAN MAHALLESİ ŞAİR EŞREF BULVARI ALTAY BLOK NO: 18 İÇ KAPI NO: 38 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>SOĞUKKUYU MAHALLESİ 1847/12 SOK. ÇINAR Apt. NO: 3 A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>KONAK MAH. 856 SK. ASİLHAN BLOK NO: 7 İÇ KAPI NO: 803 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>ATAŞEHİR MAH. 8047/1 SK. NO: 4 İÇ KAPI NO: 1 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>GÖKSU MAHALLESİ 690/17 SK. SEZER BLOK NO: 1 İÇ KAPI NO: 1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>KEMALPAŞA MAH. 7405 SK. NO: 14 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>YILDIRIM BEYAZIT MAH. 5106 SK. NO: 25A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>YALI MAHALLESİ AHMET KEMAL BAYSAK BLV. İNŞAAT BLOK NO: 42 İÇ KAPI NO: 8 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>GÖKDERE MAH. GÖKDERE CAD. NO: 85 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>SÜTÇÜLER MAH. FABRİKALAR KÜME EVLERİ NO: 15 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>MERSİNLİ MAHALLESİ 1580/1 SOKAK NO:7/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>MANSUROĞLU MAH. 286/3 SK. NO: 14B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>KAZIMDİRİK MAH. 296 SK. NO: 8A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CAD. LİMBOZ İŞHANI APT. NO: 27/402 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. İŞÇİMENLER İŞ MERKEZİ APT. NO: 146/9 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>ZAFER SB MAHALLESİ YALÇIN YOLU CAD. NO: 9/3 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 12/2 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>REİS MAH. ZAİMAĞA CAD. FİLİTLER PASAJI NO: 54L KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>KEMALPAŞA MAHALLESİ 7080 SOKAK KAPI NO:1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>GAZİ MAHALLESİ 28/21 NO:2 DAİRE:20 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>TEKELİ ATATÜRK MAH. KAZIM KARABEKİR CAD. C NO: 28CB MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>KONAK MAHALLESİ 856 SOKAK NO:7/503 ASİLHAN Apt. KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>GÜNEY MAHALLESİ 1140 NO:57 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>MANAVKUYU MAHALLESİ 250 SOK. 2 Apt. NO: 8 /1A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>ERZENE MAH. GENÇLİK CAD. NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/11 SOKAK NO:11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ 2. ÖTEYAKA ( KÜME EVLER ) NO: 40 /1/1 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ GAZİ BLV. HİSAR DÜNYA KAHVELERİ APT. NO: 132/_ KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>KARACAOĞLAN MAH. 6170 SK. NO: 11/38 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ DR. ALİ KARAMAN CAD. NO:2/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2809 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>BAHARİYE MAHALLESİ 1837 SK. SAYB BLOK NO: 14 İÇ KAPI NO: 5 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>İSMET KAPTAN MAH. GAZİ OSMAN PAŞA BUL. NO: 9 İÇ KAPI NO: 12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>ALSANCAK MAH. 1466 SK. NO: 12A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>SEKİZ EYLÜL MAHALLESİ 102 SK. NO:72 DAİRE:1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>GÜRPINAR MAH. 7232/7 SK. AY-KOOP SİTESİ NO: 37A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>OSMANGAZİ MAHALLESİ 562 SK. ÖZKANLAR 107 APT. NO: 5 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>MANSUROĞLU MAHALLESİ SAKARYA CAD. NO:73 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>YILDIRIM BEYAZIT MAHALLESİ FATİH CAD. NO: 1/706 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5822,11 +5266,6 @@
           <t>ÇINARLI MAH. ANKARA ASFALTI CAD. NO: 15 İÇ KAPI NO: 391 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5870,11 +5309,6 @@
           <t>ÇINARLI MAHALLESİ ANKARA ASFALTI CADDESİ NO: 15 İÇ KAPI NO: 222 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5918,11 +5352,6 @@
           <t>AKDENİZ MAH. ŞEHİT FETHİBEY CAD. HERİS TOWER NO: 55 İÇ KAPI NO: 091 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5966,11 +5395,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/16 SOKAK BUCA TAR.KAL.KOOP. Sit. E5 Apt. NO: 12 A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6014,11 +5438,6 @@
           <t>ÇINARLI MAH. 1587 SK. NO: 2-6 İÇ KAPI NO: 2201 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6062,11 +5481,6 @@
           <t>BOSTANLI MAHALLESİ AHMET PENDİKLİ SK. NO: 3A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6110,11 +5524,6 @@
           <t>MANSUROĞLU MAH. 1593/1 SK. NO: 26D BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6158,11 +5567,6 @@
           <t>YAYLACIK MAH. GAZİ OSMAN PAŞA CAD. GÜNGÖR NO: 122B İÇ KAPI NO: B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6206,11 +5610,6 @@
           <t>UMURBEY MAHALLESİ 1501 SOKAK NO:2/C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6254,11 +5653,6 @@
           <t>BASIN SİTESİ MAHALLESİ İNÖNÜ CAD. FAİK BEY BLOK NO: 479A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6302,11 +5696,6 @@
           <t>MANSUROĞLU MAH. 257 SK. NO: 9B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6350,11 +5739,6 @@
           <t>HÜRRİYET MAH. CELAL BAYAR BUL. KERESTECILER ÇARŞISI SİTESİ NO: 31 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6398,11 +5782,6 @@
           <t>ESTİM SANAYİ SİTESİ MAHALLESİ 2. CADDE NO:5-7 KISIKKÖY / İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6446,11 +5825,6 @@
           <t>UĞUR MUMCU MAHALLESİ 8980/5 SK. NO:14/A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6494,11 +5868,6 @@
           <t>PAYAMLI MAH. KUŞADASI SEFERİHİSAR YOLU CAD. NO: 124A SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6542,11 +5911,6 @@
           <t>İNCİRALTI MAHALLESİ İNCİRALTI CAD. NO:42 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6590,11 +5954,6 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1 SK. A BLOK APT. NO: 2/108 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6638,11 +5997,6 @@
           <t>İSMET KAPTAN MAHALLESİ SEZER DOĞAN SK. DİNMEZ İŞHANI APT. NO: 10/54 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6686,11 +6040,6 @@
           <t>KEMALPAŞA OSB MAH. SANAYİ CAD. NO: 10 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6734,11 +6083,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ SANAYİ CAD NO:10 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6782,11 +6126,6 @@
           <t>MALTEPE MAHALLESİ YAREN DEDE SK NO:31 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6830,11 +6169,6 @@
           <t>ATATÜRK MAHALLESİ SANAYİ CD. NO:10/1 ULUCAK KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6878,11 +6212,6 @@
           <t>MANSUROĞLU MAH. 288/6 SK. NO: 14B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6926,11 +6255,6 @@
           <t>YENİŞEHİR MAHALLESİ 1202 SOK. NO: 82A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6974,11 +6298,6 @@
           <t>YENİŞEHİR MAH. 1248 SK. NO: 4A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7022,11 +6341,6 @@
           <t>KAZIMDİRİK MAHALLESİ 229/2 SOKAK NO:21/A MEŞE Apt. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7070,11 +6384,6 @@
           <t>BAHRİYE ÜÇOK MAH. LATİFE HANIM SK. NO: 93B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7118,11 +6427,6 @@
           <t>AKDENİZ MAHALLESİ 1337 SOKAK NO: 1 İÇ KAPI NO: 24 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7166,11 +6470,6 @@
           <t>KEMALPAŞA MAH. 6 SK. NO: 18-22A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7214,11 +6513,6 @@
           <t>İSMET KAPTAN MAH. ŞAİR EŞREF BUL. KARA AHMETOGLU BLOK NO: 22 İÇ KAPI NO: 205 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7262,11 +6556,6 @@
           <t>YALI MAHALLESİ AHMET KEMAL BAYSAK BLV. İNŞAAT BLOK NO: 42 İÇ KAPI NO: 8 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7310,11 +6599,6 @@
           <t>ATAŞEHİR MAH. 8282 SK. BALCILAR İŞ MERKEZI SİTESİ NO: 14 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7358,11 +6642,6 @@
           <t>İSMET KAPTAN MAH. GAZİ OSMAN PAŞA BUL. YENI ASIR IŞ HANI NO: 3 İÇ KAPI NO: 510 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7406,11 +6685,6 @@
           <t>ATATÜRK MAHALLESİ 947 SOKAK NO: 6A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7454,11 +6728,6 @@
           <t>KAZIMDİRİK MAHALLESİ 364/1 SOKAK NO:3/A ÖZEL ATAHAN KIZ OGRENCI YURDU SİTESİ BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7502,11 +6771,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/2 SOK. NO: 6M KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7550,11 +6814,6 @@
           <t>KAZIMDİRİK MAHALLESİ ÜNİVERSİTE CAD. NO: 72 İÇ KAPI NO: 105 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7598,11 +6857,6 @@
           <t>NERGİZ MAH. 6003 SK. AHMET BEY NO: 47A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7646,11 +6900,6 @@
           <t>KARACAOĞLAN MAH. 6170 SK. NO: 11/12 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7694,11 +6943,6 @@
           <t>FATİH MAH. 1191 SK. NO: 3 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7742,11 +6986,6 @@
           <t>KEMALPAŞA OSB MAH. KUYUCAK YOLU SK. NO: 228 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7790,11 +7029,6 @@
           <t>YENİŞEHİR MAHALLESİ PAKİSTAN BLV. NO: 5 F/- KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7838,11 +7072,6 @@
           <t>KORUTÜRK MAH. SERVET SK. NO: 20 İÇ KAPI NO: 1 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7886,11 +7115,6 @@
           <t>HÜRRİYET MAHALLESİ CELAL BAYAR BULV. NO:31 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7934,11 +7158,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/21 SK. NO: 10 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7982,11 +7201,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 104 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8030,11 +7244,6 @@
           <t>ÇINARLI MAHALLESİ ANKARA ASFALTI CADDESİ NO:15/421 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8078,11 +7287,6 @@
           <t>KAZIM DİRİK MAHALLESİ ANKARA CAD. YILMAZ BLOK NO: 209A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8126,11 +7330,6 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ 1762 SK. NO: 9 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8174,11 +7373,6 @@
           <t>ADALET MAH. 1586/3 SK. NO: 40 İÇ KAPI NO: 4 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8222,11 +7416,6 @@
           <t>KEMALPAŞA MAHALLESİ ÇANAKKALE CADDESI NO: 41 H BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8270,11 +7459,6 @@
           <t>DEMİRKÖPRÜ MAH. 6187 SK. NO: 18C KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8318,11 +7502,6 @@
           <t>CUMHURİYET MAHALLESİ SANAYİ CD. NO:96 ARMUTLU KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8366,11 +7545,6 @@
           <t>KIZILÜZÜM MAH. KEMALPAŞA KIZILÜZÜM CAD. NO: 14 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8414,11 +7588,6 @@
           <t>ÇINARKÖY MAH. KEMALPAŞA ÇINARKÖY CAD. NO: 34/4 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8462,11 +7631,6 @@
           <t>ÇİLE MAH. 7455 SK. NO: 3 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8510,11 +7674,6 @@
           <t>İNÖNÜ MAH. BARBAROS CAD. NO: 376A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8558,11 +7717,6 @@
           <t>9 EYLÜL MAHALLESİ 342 SK. NO:6/1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8606,11 +7760,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ SANAYİ CAD NO:8 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8654,11 +7803,6 @@
           <t>YILDIRIMBEYAZIT MAHALLESİ 5142 SOKAK NO: 11 İÇ KAPI NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8702,11 +7846,6 @@
           <t>AKDENİZ MAH. ŞEHİT FETHİBEY CAD. HERİS TOWER BLOK NO: 55 İÇ KAPI NO: 091 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8750,11 +7889,6 @@
           <t>YALI MAH. CAHER DUDAYEV BUL. NO: 107A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8798,11 +7932,6 @@
           <t>AOSB MAHALLESİ 10044 SK. NO:15 SEÇSAN LTD ŞTİ SİT. A.O.S.B. ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8846,11 +7975,6 @@
           <t>İSTİKLAL MAHALLESİ NO:110 AKALAN KÖYÜ UZUNKUYU MEVKİİ YOL KENARI SANAYİ KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8894,11 +8018,6 @@
           <t>KEMALPAŞA MAHALLESİ PINAR CADDESI NO:94 PINARBAŞI BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8942,11 +8061,6 @@
           <t>MANSUROĞLU MAH. 263 SK. NO: 45 İÇ KAPI NO: 12 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8990,11 +8104,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145/4 SOKAK NO:11/F KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9038,11 +8147,6 @@
           <t>MUAMMER AKAR MAHALLESİ 47 SK. NO: 32A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9086,11 +8190,6 @@
           <t>85.YIL CUMHURİYET MAHALLESİ HAYVANKIRAN ( KÜME EVLER ) A APT. NO: 92 /2/1 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9134,11 +8233,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2804 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9182,11 +8276,6 @@
           <t>MERSİNLİ MAHALLESİ 1580/1 SOKAK NO:5/1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9230,11 +8319,6 @@
           <t>FATİH MAHALLESİ 1203 SK. NO:15/2A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9278,11 +8362,6 @@
           <t>BOSTANLI MAHALLESİ 1821/1 SK. NO:12/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9326,11 +8405,6 @@
           <t>YENİŞEHİR MAH. 1249 SK. NO: 9A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9374,11 +8448,6 @@
           <t>ZAFER SB MAH. AYFER SK. NO:20 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9422,11 +8491,6 @@
           <t>ZAFER SB MAHALLESİ ÇINAR SK. NO: 18 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9470,11 +8534,6 @@
           <t>ONUR MAHALLESİ KIZILCIK SK. ERTUNÇ BLOK NO: 8B BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9518,11 +8577,6 @@
           <t>KIZILÜZÜM MAH. KEMALPAŞA KIZILÜZÜM CAD. NO: 14/3 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9566,11 +8620,6 @@
           <t>İTOB OSB MAHALLESİ 10020 SOK. NO:18 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9614,11 +8663,6 @@
           <t>KAZIMDİRİK MAH. 296/2 SK. NO: 2N BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -9662,11 +8706,6 @@
           <t>MERSİN ALANI MAH. ÜRKMEZ CAD. NO: 129B SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -9710,11 +8749,6 @@
           <t>MERSİNLİ MAHALLESİ 2817 SOKAK NO:65/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -9758,11 +8792,6 @@
           <t>KÜLTÜR MAHALLESİ ŞEHİT NEVRES BLV. SEDİR APT. NO: 5/5 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -9806,11 +8835,6 @@
           <t>BOZYER KÜME EVLERİ TURGUT MAH. NO:41/1 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -9854,11 +8878,6 @@
           <t>BOSTANLI MAH. NEBİL SUSUP SK. NO: 162A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -9902,11 +8921,6 @@
           <t>BOSTANLI MAH. 1787/1 SK. BAŞAK BLOK NO: 41A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -9950,11 +8964,6 @@
           <t>MİTHATPAŞA MAH. 181 SK. NO: 30A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -9998,11 +9007,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145/1 SK. NO: 55 I KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10046,11 +9050,6 @@
           <t>YAKA MAHALLESİ 465 SK. NO: 84 /1/0 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10094,11 +9093,6 @@
           <t>İSMET KAPTAN MAH. GAZİ OSMAN PAŞA BUL. YENI ASIR IŞ HANI NO: 3 İÇ KAPI NO: 510 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10142,11 +9136,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10190,11 +9179,6 @@
           <t>ÇANKAYA MAHALLESİ MİTHATPAŞA CADDESİ KARDEŞLER BLOK NO: 822C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10238,11 +9222,6 @@
           <t>BAHRİYE ÜÇOK MAH. 1762 SK. NO: 9 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10286,11 +9265,6 @@
           <t>DEVELİ MAH. 9130 SK. NO: 1/2 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10334,11 +9308,6 @@
           <t>DÜZCE MAHALLESİ NO:61 TORLAK ( KÜME EVLER ) SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10382,11 +9351,6 @@
           <t>ZAFER SB MAH. KÜRŞAD SK. NO: 15 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10430,11 +9394,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO:39 FOLKART TOWERS B KULE KAT:31 DAİRE:3107 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10478,11 +9437,6 @@
           <t>BOSTANLI MAH. HASAN ALİ YÜCEL BUL. NO: 35A İÇ KAPI NO: 102 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10526,11 +9480,6 @@
           <t>HALKAPINAR MAH. 1202/4 SK. NO: 41 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10574,11 +9523,6 @@
           <t>HALKAPINAR MAH. 1202/2 SK. NO: 6I KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -10622,11 +9566,6 @@
           <t>İSMET KAPTAN MAHALLESİ SEZER DOĞAN SK. NO:10 DİNMEZ İŞHANI DAİRE:54 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10670,11 +9609,6 @@
           <t>ADALET MAHALLESİ MANAS BULVARI NO:47/B FOLKART TOWERS BLOK İÇ KAPI NO: 3509 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10718,11 +9652,6 @@
           <t>ERZENE MAHALLESİ ANKARA CAD. EGE TEKNO PARK BLOK NO: 172/67 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -10766,11 +9695,6 @@
           <t>ATATÜRK MAHALLESİ HÜRRİYET CAD. NO: 203A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10814,11 +9738,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. NO: 39 İÇ KAPI NO: 3201 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10862,11 +9781,6 @@
           <t>CAMİKEBİR MAHALLESİ NECAT HEPKON CAD. NO: 29/1 SEFERİHİSAR/İZMİR</t>
         </is>
       </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -10910,11 +9824,6 @@
           <t>TEPECİK MAHALLESİ AKÇAKAYA KÜMEEVLER NO:1 SEFERİHİSAR/İZMİR</t>
         </is>
       </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10958,11 +9867,6 @@
           <t>TEPECİK MAH. AKÇAKAYA KÜME EVLERİ E BLOK NO: 2 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11006,11 +9910,6 @@
           <t>SÜTÇÜLER MAHALLESİ İZMİR-ANKARA CD. NO:23/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11054,11 +9953,6 @@
           <t>KEMALPAŞA MAHALLESİ 7416/3 SOKAK NO:NO:9 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11102,11 +9996,6 @@
           <t>KEMALPAŞA OSB. MAHALLESİ 31 SK. NO:6/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11150,11 +10039,6 @@
           <t>KÜLTÜR MAHALLESİ İZMİR CUMHURİYET MEYDANI CUMHURİYET BLOK NO: 12 İÇ KAPI NO: 61 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11198,11 +10082,6 @@
           <t>KONAK MAHALLESİ ANAFARTALAR CADDESİ SALEPÇİOĞLU VAKIF ÇARŞI İŞHANI Apt. NO:96/111 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11246,11 +10125,6 @@
           <t>İNÖNÜ MAHALLESİ 672/17 SK. NO: 2 A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11294,11 +10168,6 @@
           <t>85. YIL CUMHURİYET MAHALLESİ HAYVANKIRAN (KÜMEEVLER) NO:92/2/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11342,11 +10211,6 @@
           <t>AKDENİZ MAHALLESİ 1347 SK. NO: 8/110 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11390,11 +10254,6 @@
           <t>ADATEPE MAH. 3/18 SK. S.S.EGETEKS.KOOP SİTESİ NO: 1D BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11438,11 +10297,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CADDESİ NO:32 DAİRE:201 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11486,11 +10340,6 @@
           <t>İSMET KAPTAN MAH. HÜRRİYET BUL. KAVALA PLAZA BLOK NO: 4/1 İÇ KAPI NO: 61 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11534,11 +10383,6 @@
           <t>KONAK MAHALLESİ 846 SK. NO: 28 İÇ KAPI NO: 21 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -11582,11 +10426,6 @@
           <t>AOSB MAHALLESİ 10002 SK. NO:28 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -11630,11 +10469,6 @@
           <t>KÜLTÜR MAH. DR. MUSTAFA ENVER BEY CAD. ONUR NO: 5B İÇ KAPI NO: 5B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -11678,11 +10512,6 @@
           <t>MUSALLA MAH. 1016 SK. NO: 2/17B ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -11726,11 +10555,6 @@
           <t>KILIÇ REİS MAH. İNÖNÜ CAD. NO: 210D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -11774,11 +10598,6 @@
           <t>HALKAPINAR MAHALLESİ 1203/9 SOKAK NO:2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -11822,11 +10641,6 @@
           <t>AKIN SİMAV MAHALLESİ MİTHATPAŞA CADDESİ NO:331/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -11870,11 +10684,6 @@
           <t>YENİŞEHİR MAH. 1145/6 SK. NO: 14K KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -11918,11 +10727,6 @@
           <t>GÜRPINAR MAH. 7232/7 SK. AY-KOOP SİTESİ NO: 35A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -11964,11 +10768,6 @@
       <c r="I240" s="2" t="inlineStr">
         <is>
           <t>KAZIMDİRİK MAHALLESİ 364/10 SK. NO: 2E BORNOVA / İZMİR</t>
-        </is>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>03 - TARIMSAL HAMMADDE ARACILARI PAMUK TÜTÜN VE BAHARATÇILAR GRUBU</t>
         </is>
       </c>
     </row>
